--- a/similarities/split_global/harmonic_similarity_timestamps_21.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>isophonics_229</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>isophonics_248</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['A:maj/9', 'B', 'E']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['E/5', 'F#/4', 'B']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:03.320000', '0:00:08.680000')]</t>
+          <t>('0:00:22.599387', '0:00:29.576984')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:02:06.195000', '0:02:11.396000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-229#t=22.599387</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=126.195</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab', 'Eb']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:16.070000', '0:02:21.510000')]</t>
+          <t>('0:00:23.980000', '0:00:29.420000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.866546', '0:00:12.917702')]</t>
+          <t>('0:00:18.420000', '0:00:24.340000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=23.98</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['F#:maj', 'C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:00:38.200000', '0:00:42.240000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:07.820000')]</t>
+          <t>('0:00:38.580000', '0:00:45.980000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=38.2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=0.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=38.58</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:59.182426', '0:01:04.464965')]</t>
+          <t>('0:00:43.260000', '0:00:45.660000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:52.680839', '0:00:55.420793')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=52.680839</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'G', 'D']]</t>
+          <t>['C:maj', 'G/3', 'C:maj', 'G/3', 'C:maj', 'G/3', 'C:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:28.197000', '0:00:34.358000')]</t>
+          <t>('0:02:37.019000', '0:02:44.660000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:17.020000', '0:00:25.820000')]</t>
+          <t>('0:00:31.898979', '0:00:36.914489')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=28.197']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=157.019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=17.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=31.898979</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Ab/b5', 'Ab:7', 'Db/3'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj', 'D:7/C']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D:min7', 'G:7', 'C', 'G:7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:05.320000', '0:00:06.840000'), ('0:00:46.750000', '0:00:47.790000')]</t>
+          <t>('0:01:07.560000', '0:01:17.120000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:53.500000', '0:01:01.320000'), ('0:01:08.640000', '0:01:17.380000')]</t>
+          <t>('0:00:04.240000', '0:00:15.040000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=67.56</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=53.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=4.24</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_19</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C:min7', 'F:7']]</t>
+          <t>['F:maj', 'A#:maj/F', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:min7', 'Eb:7']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:08.810000', '0:00:10.510000')]</t>
+          <t>('0:00:17.340000', '0:00:24.400000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:05.770000', '0:00:07.960000')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=8.81']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-19#t=5.77']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:31.740000', '0:00:33.880000')]</t>
+          <t>('0:00:03.744784', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:38.620000', '0:00:44.060000')]</t>
+          <t>('0:00:02.640000', '0:00:07.300000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=31.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=38.62']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+          <t>('0:00:12.280000', '0:00:19.740000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+          <t>('0:00:08.240000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=29.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=18.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:01:49.520000', '0:01:54.200000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:00:09.780000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['Db', 'Db:min', 'Ab']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A', 'A:min/b3', 'E']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:42.560000', '0:00:48.720000')]</t>
+          <t>('0:02:02.570000', '0:02:04.490000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:26.940000', '0:01:37.980000')]</t>
+          <t>('0:00:23.370907', '0:00:27.840748')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=42.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=122.57</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=86.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=23.370907</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:45.580000', '0:00:49.600000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:58.557000', '0:01:02.834000'), ('0:00:40.490000', '0:00:47.860000')]</t>
+          <t>('0:00:11.440000', '0:00:16.380000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['E', 'A', 'E', 'B', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['G', 'C', 'G', 'D', 'C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:17.282018')]</t>
+          <t>('0:00:15.216000', '0:00:59.164000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
+          <t>('0:00:08.158789', '0:00:28.461467')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_71</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>['F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G', 'G:7', 'C', 'G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:40.600000', '0:00:48.700000')]</t>
+          <t>('0:00:56.440000', '0:01:07.260000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:12.980000', '0:01:32.860000')]</t>
+          <t>('0:00:58.265237', '0:01:08.830317')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=40.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=56.44</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=72.98']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=58.265237</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_12</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:7']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G:7']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:17.890000', '0:00:21.530000')]</t>
+          <t>('0:00:44.820000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:18.010000', '0:00:21.490000')]</t>
+          <t>('0:01:28.583470', '0:01:38.974002')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-12#t=17.89']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.82</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=18.01']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=88.58347</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
